--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\FishProject\Common\config\xlsx\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737EBCC-2CB5-4CF7-9808-1410245F9A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -1425,14 +1431,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,345 +1454,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1809,255 +1485,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2067,10 +1501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2082,65 +1513,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2427,21 +1811,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
@@ -2458,7 +1841,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2502,14 +1885,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2546,78 +1929,75 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:14">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2634,11 +2014,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2653,7 +2033,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2678,8 +2058,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2697,7 +2077,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2722,8 +2102,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2741,7 +2121,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2766,8 +2146,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2785,7 +2165,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2810,8 +2190,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2829,7 +2209,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2854,8 +2234,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2873,7 +2253,7 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2898,8 +2278,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2917,7 +2297,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2942,8 +2322,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2961,7 +2341,7 @@
       <c r="F12" s="1">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2986,8 +2366,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3005,7 +2385,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3030,8 +2410,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3049,7 +2429,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3074,8 +2454,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3093,7 +2473,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3118,8 +2498,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3137,7 +2517,7 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3162,8 +2542,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3181,7 +2561,7 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3206,8 +2586,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3225,7 +2605,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3250,8 +2630,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3269,7 +2649,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3294,8 +2674,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3313,7 +2693,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3338,8 +2718,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3357,7 +2737,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3382,8 +2762,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3401,7 +2781,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3426,8 +2806,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3445,7 +2825,7 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3470,8 +2850,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3489,7 +2869,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3514,8 +2894,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3533,7 +2913,7 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3558,8 +2938,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3577,7 +2957,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3602,8 +2982,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3621,7 +3001,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3646,8 +3026,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3665,7 +3045,7 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3690,8 +3070,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3709,7 +3089,7 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3734,8 +3114,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3753,7 +3133,7 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3778,8 +3158,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3797,7 +3177,7 @@
       <c r="F31" s="1">
         <v>51</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3822,8 +3202,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3841,7 +3221,7 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3866,8 +3246,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3885,7 +3265,7 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3910,8 +3290,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3929,7 +3309,7 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3954,8 +3334,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3973,7 +3353,7 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3998,8 +3378,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4017,7 +3397,7 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4042,8 +3422,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4061,7 +3441,7 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -4086,8 +3466,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4105,7 +3485,7 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -4130,8 +3510,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4149,7 +3529,7 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -4174,8 +3554,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4193,7 +3573,7 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -4218,8 +3598,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4237,7 +3617,7 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -4262,8 +3642,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4281,7 +3661,7 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -4306,8 +3686,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4325,7 +3705,7 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -4351,33 +3731,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -4385,7 +3764,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -4393,7 +3772,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4401,20 +3780,20 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -4422,7 +3801,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -4430,104 +3809,103 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>284</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>288</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>290</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>291</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -4535,8 +3913,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:14">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4551,7 +3929,7 @@
       <c r="E24" s="1">
         <v>65</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -4568,8 +3946,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\FishProject\Common\config\xlsx\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737EBCC-2CB5-4CF7-9808-1410245F9A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D600202-D994-417C-A604-910A1A1944F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -1426,6 +1426,30 @@
   </si>
   <si>
     <t>Hotfix.CrashRocket.UIEntry</t>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>module65</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,100,10000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1817,11 +1841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,7 +1867,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1998,8 +2022,11 @@
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>39</v>
@@ -3728,6 +3755,50 @@
       </c>
       <c r="N43" s="1" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" s="1">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3739,10 +3810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3945,6 +4016,38 @@
         <v>295</v>
       </c>
     </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="1">
+        <v>65</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\FishProject\Common\config\xlsx\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D600202-D994-417C-A604-910A1A1944F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -746,7 +740,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>module61</t>
+    <t>module65</t>
   </si>
   <si>
     <t>偷窥</t>
@@ -755,6 +749,9 @@
     <t>Peeking</t>
   </si>
   <si>
+    <t>Hotfix.CrashRocket.UIEntry</t>
+  </si>
+  <si>
     <t>Hotfix.TouKui.TouKuiEntry</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
     <t>LTBYEntry</t>
   </si>
   <si>
+    <t>module62,prefab</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -800,6 +800,9 @@
     <t>Hotfix.MJHL.MJHLEntry</t>
   </si>
   <si>
+    <t>Crash</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -1416,47 +1419,23 @@
     <t>注释行不会被导出</t>
   </si>
   <si>
-    <t>module65</t>
-  </si>
-  <si>
     <t>Crash小飞机</t>
   </si>
   <si>
-    <t>Crash</t>
-  </si>
-  <si>
-    <t>Hotfix.CrashRocket.UIEntry</t>
-  </si>
-  <si>
     <t>41</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>module65</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,100,10000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,21 +1457,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1509,9 +1812,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,17 +2083,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1835,20 +2424,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
@@ -1865,9 +2455,9 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1909,7 +2499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +2543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="5" customFormat="1" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2023,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>39</v>
@@ -2041,7 +2631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -2085,7 +2675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2129,7 +2719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -2173,7 +2763,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2217,7 +2807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -2261,7 +2851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -2305,7 +2895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
@@ -2349,7 +2939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
@@ -2393,7 +2983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
@@ -2437,7 +3027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
@@ -2481,7 +3071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
@@ -2525,7 +3115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -2569,7 +3159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -2613,7 +3203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -2657,7 +3247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2701,7 +3291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
@@ -2745,7 +3335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +3379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>134</v>
       </c>
@@ -2833,7 +3423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>139</v>
       </c>
@@ -2877,7 +3467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
@@ -2921,7 +3511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>151</v>
       </c>
@@ -2965,7 +3555,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>156</v>
       </c>
@@ -3009,7 +3599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>161</v>
       </c>
@@ -3053,7 +3643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>166</v>
       </c>
@@ -3097,7 +3687,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>171</v>
       </c>
@@ -3141,7 +3731,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>177</v>
       </c>
@@ -3185,7 +3775,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>182</v>
       </c>
@@ -3229,7 +3819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
@@ -3273,7 +3863,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
         <v>193</v>
       </c>
@@ -3317,7 +3907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
         <v>198</v>
       </c>
@@ -3361,7 +3951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
@@ -3405,7 +3995,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>210</v>
       </c>
@@ -3449,7 +4039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>215</v>
       </c>
@@ -3493,7 +4083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
         <v>222</v>
       </c>
@@ -3537,7 +4127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
         <v>228</v>
       </c>
@@ -3581,7 +4171,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
         <v>234</v>
       </c>
@@ -3625,7 +4215,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
         <v>240</v>
       </c>
@@ -3654,13 +4244,13 @@
         <v>244</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>80</v>
@@ -3669,18 +4259,18 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E42" s="1">
         <v>62</v>
@@ -3695,7 +4285,7 @@
         <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>38</v>
@@ -3704,27 +4294,27 @@
         <v>38</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E43" s="1">
         <v>63</v>
@@ -3736,10 +4326,10 @@
         <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>38</v>
@@ -3754,21 +4344,21 @@
         <v>80</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="E44" s="1">
         <v>65</v>
@@ -3777,225 +4367,226 @@
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4007,27 +4598,27 @@
         <v>37</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4039,18 +4630,18 @@
         <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>Crash</t>
+  </si>
+  <si>
+    <t>module65,config,audio</t>
   </si>
   <si>
     <t>表头</t>
@@ -2435,7 +2438,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4388,7 +4391,7 @@
         <v>80</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4415,60 +4418,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4476,7 +4479,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4484,31 +4487,31 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4516,39 +4519,39 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4556,23 +4559,23 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4583,7 +4586,7 @@
         <v>241</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>261</v>
@@ -4609,13 +4612,13 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>261</v>

--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -740,67 +740,70 @@
     <t>38</t>
   </si>
   <si>
+    <t>module61</t>
+  </si>
+  <si>
+    <t>偷窥</t>
+  </si>
+  <si>
+    <t>Peeking</t>
+  </si>
+  <si>
+    <t>Hotfix.TouKui.TouKuiEntry</t>
+  </si>
+  <si>
+    <t>Module61.TouKui.TouKuiEntry</t>
+  </si>
+  <si>
+    <t>TouKuiEntry</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>module62</t>
+  </si>
+  <si>
+    <t>龙腾捕鱼</t>
+  </si>
+  <si>
+    <t>3D Fishing</t>
+  </si>
+  <si>
+    <t>Hotfix.LTBY.LTBYEntry</t>
+  </si>
+  <si>
+    <t>LTBYEntry</t>
+  </si>
+  <si>
+    <t>module62,prefab</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>module63</t>
+  </si>
+  <si>
+    <t>麻将胡了</t>
+  </si>
+  <si>
+    <t>Mahjong ways</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>Hotfix.MJHL.MJHLEntry</t>
+  </si>
+  <si>
     <t>module65</t>
   </si>
   <si>
-    <t>偷窥</t>
-  </si>
-  <si>
-    <t>Peeking</t>
+    <t>Crash</t>
   </si>
   <si>
     <t>Hotfix.CrashRocket.UIEntry</t>
-  </si>
-  <si>
-    <t>Hotfix.TouKui.TouKuiEntry</t>
-  </si>
-  <si>
-    <t>Module61.TouKui.TouKuiEntry</t>
-  </si>
-  <si>
-    <t>TouKuiEntry</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>module62</t>
-  </si>
-  <si>
-    <t>龙腾捕鱼</t>
-  </si>
-  <si>
-    <t>3D Fishing</t>
-  </si>
-  <si>
-    <t>Hotfix.LTBY.LTBYEntry</t>
-  </si>
-  <si>
-    <t>LTBYEntry</t>
-  </si>
-  <si>
-    <t>module62,prefab</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>module63</t>
-  </si>
-  <si>
-    <t>麻将胡了</t>
-  </si>
-  <si>
-    <t>Mahjong ways</t>
-  </si>
-  <si>
-    <t>Portrait</t>
-  </si>
-  <si>
-    <t>Hotfix.MJHL.MJHLEntry</t>
-  </si>
-  <si>
-    <t>Crash</t>
   </si>
   <si>
     <t>module65,config,audio</t>
@@ -2438,7 +2441,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4247,13 +4250,13 @@
         <v>244</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>80</v>
@@ -4264,16 +4267,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E42" s="1">
         <v>62</v>
@@ -4288,36 +4291,36 @@
         <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E43" s="1">
         <v>63</v>
@@ -4329,10 +4332,10 @@
         <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>38</v>
@@ -4347,7 +4350,7 @@
         <v>80</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4355,7 +4358,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>261</v>
@@ -4376,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>38</v>
@@ -4391,7 +4394,7 @@
         <v>80</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4418,60 +4421,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4479,7 +4482,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4487,31 +4490,31 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4519,39 +4522,39 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4559,23 +4562,23 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4583,10 +4586,10 @@
         <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>261</v>
@@ -4601,24 +4604,24 @@
         <v>37</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>261</v>
@@ -4633,13 +4636,13 @@
         <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
+++ b/config/xlsx/Common/ModuleGameConfig_子游戏配置.xlsx
@@ -806,7 +806,7 @@
     <t>Hotfix.CrashRocket.UIEntry</t>
   </si>
   <si>
-    <t>module65,config,audio</t>
+    <t>module65,crashconfig,crashaudio</t>
   </si>
   <si>
     <t>表头</t>
@@ -2441,7 +2441,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
